--- a/biology/Zoologie/Eurytides/Eurytides.xlsx
+++ b/biology/Zoologie/Eurytides/Eurytides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Eurytides regroupe des lépidoptères de la famille des Papilionidae et de la sous-famille des Papilioninae.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom d’Eurytides a été donné par Jakob Hübner en 1821.
 </t>
@@ -542,7 +556,9 @@
           <t>Caractéristiques communes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils résident en Amérique.
 </t>
@@ -573,7 +589,9 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sous-groupe Bellerographum Möhn, 2002 ;
 Eurytides bellerophon (Dahlman, 1823)
@@ -587,13 +605,13 @@
 Eurytides dolicaon hebreus Brown et Lamas, 1994
 Eurytides dolicaon septentrionalis Brown, 1994
 Eurytides dolicaon tromes (Rothschild et Jordan, 1906)
-Eurytides iphitas Hübner, [1821]
+Eurytides iphitas Hübner, 
 Eurytides marcellus (Cramer, 1777)
 Eurytides orabilis (Butler, 1872)
 Eurytides orabilis orabilis
 Eurytides orabilis isocharis (Rothschild et Jordan, 1906)
 Eurytides salvini (Bates, 1864)
-Eurytides serville (Godart, [1824])
+Eurytides serville (Godart, )
 Eurytides serville serville
 Eurytides serville acritus (Rothschild et Jordan, 1906)</t>
         </is>
@@ -623,7 +641,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">« Eurytides », sur funet.fi (consulté le 8 mai 2012)
 </t>
